--- a/SWR.xlsx
+++ b/SWR.xlsx
@@ -4,26 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="SWR" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -91,7 +78,7 @@
     <t>DESIGNATOR</t>
   </si>
   <si>
-    <t>123456-ExtraPlace</t>
+    <t>123456-EXTRAPLACE</t>
   </si>
   <si>
     <t>590-123456</t>
@@ -115,7 +102,7 @@
 J1000</t>
   </si>
   <si>
-    <t>123457-NoPlace-ALL</t>
+    <t>123457-NOPLACE-ALL</t>
   </si>
   <si>
     <t>NO PLACE
@@ -133,7 +120,7 @@
 J3</t>
   </si>
   <si>
-    <t>123458-NoPlace-Partial</t>
+    <t>123458-NOPLACE-PARTIAL</t>
   </si>
   <si>
     <t>NO PLACE</t>
@@ -145,7 +132,7 @@
     <t>R107,R112-R113</t>
   </si>
   <si>
-    <t>123459-PartSub-ALL</t>
+    <t>123459-PARTSUB-ALL</t>
   </si>
   <si>
     <t>510-500956A
@@ -153,7 +140,7 @@
 531-500480A</t>
   </si>
   <si>
-    <t>123460-PartSub-Partial</t>
+    <t>123460-PARTSUB-PARTIAL</t>
   </si>
   <si>
     <t>510-500956A</t>
@@ -174,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -185,7 +172,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +180,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -201,14 +188,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +203,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +211,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +219,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +227,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -248,14 +235,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +250,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +258,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -279,14 +266,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -294,42 +281,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -810,55 +797,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1164,13 +1151,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
@@ -1212,7 +1199,7 @@
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1235,7 +1222,7 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1258,7 +1245,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1281,7 +1268,7 @@
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1304,7 +1291,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1326,8 +1313,32 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="str">
+        <f>UPPER(A8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="str">
+        <f>UPPER(A9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="str">
+        <f>UPPER(A10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="str">
+        <f>UPPER(A11)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <conditionalFormatting sqref="A1 A7:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
